--- a/Course II/R/Diksi/result/таблица_Творог.xlsx
+++ b/Course II/R/Diksi/result/таблица_Творог.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="56">
   <si>
     <t>Магазин</t>
   </si>
@@ -86,109 +86,100 @@
     <t>Среднее</t>
   </si>
   <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>99</t>
+    <t>82</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>98</t>
   </si>
   <si>
     <t>110</t>
   </si>
   <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>101</t>
+    <t>81</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>107</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>Воскресенье</t>
+  </si>
+  <si>
+    <t>Среда</t>
+  </si>
+  <si>
+    <t>Суббота</t>
+  </si>
+  <si>
+    <t>Пятница</t>
+  </si>
+  <si>
+    <t>Четверг</t>
+  </si>
+  <si>
     <t>Понедельник</t>
   </si>
   <si>
-    <t>Пятница</t>
-  </si>
-  <si>
-    <t>Суббота</t>
-  </si>
-  <si>
-    <t>Четверг</t>
-  </si>
-  <si>
-    <t>Среда</t>
-  </si>
-  <si>
-    <t>Воскресенье</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>34</t>
+    <t>Вторник</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>97</t>
+    <t>24</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>86</t>
   </si>
   <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
     <t>72</t>
   </si>
   <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>65</t>
+    <t>145</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>103</t>
   </si>
 </sst>
 </file>
@@ -282,37 +273,37 @@
         <v>12</v>
       </c>
       <c r="B2" t="n">
-        <v>5242503.0</v>
+        <v>8421732.0</v>
       </c>
       <c r="C2" t="n">
-        <v>2082108.0</v>
+        <v>6253711.0</v>
       </c>
       <c r="D2" t="n">
-        <v>217.0</v>
+        <v>374.0</v>
       </c>
       <c r="E2" t="n">
-        <v>399.0</v>
+        <v>373.0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.35950912726264</v>
+        <v>23.57864247475628</v>
       </c>
       <c r="G2" t="s">
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s">
         <v>41</v>
       </c>
       <c r="J2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" t="s">
         <v>36</v>
-      </c>
-      <c r="K2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -320,37 +311,37 @@
         <v>13</v>
       </c>
       <c r="B3" t="n">
-        <v>1.0992345E7</v>
+        <v>1.441152E7</v>
       </c>
       <c r="C3" t="n">
-        <v>7945710.0</v>
+        <v>1.1995194E7</v>
       </c>
       <c r="D3" t="n">
-        <v>455.0</v>
+        <v>640.0</v>
       </c>
       <c r="E3" t="n">
-        <v>150.0</v>
+        <v>214.0</v>
       </c>
       <c r="F3" t="n">
-        <v>31.51190251317746</v>
+        <v>46.76486267436675</v>
       </c>
       <c r="G3" t="s">
         <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
         <v>42</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -358,19 +349,19 @@
         <v>14</v>
       </c>
       <c r="B4" t="n">
-        <v>2754126.0</v>
+        <v>3107484.0</v>
       </c>
       <c r="C4" t="n">
-        <v>-196050.0</v>
+        <v>1041059.0</v>
       </c>
       <c r="D4" t="n">
-        <v>114.0</v>
+        <v>138.0</v>
       </c>
       <c r="E4" t="n">
-        <v>457.0</v>
+        <v>553.0</v>
       </c>
       <c r="F4" t="n">
-        <v>20.014280615885962</v>
+        <v>17.604112073738964</v>
       </c>
       <c r="G4" t="s">
         <v>26</v>
@@ -382,13 +373,13 @@
         <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -396,37 +387,37 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>1.087155E7</v>
+        <v>9502596.0</v>
       </c>
       <c r="C5" t="n">
-        <v>7083342.0</v>
+        <v>7491942.0</v>
       </c>
       <c r="D5" t="n">
-        <v>450.0</v>
+        <v>422.0</v>
       </c>
       <c r="E5" t="n">
-        <v>297.0</v>
+        <v>278.0</v>
       </c>
       <c r="F5" t="n">
-        <v>38.03381953697825</v>
+        <v>31.95160030271977</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -434,37 +425,37 @@
         <v>16</v>
       </c>
       <c r="B6" t="n">
-        <v>5846478.0</v>
+        <v>6440148.0</v>
       </c>
       <c r="C6" t="n">
-        <v>2389596.0</v>
+        <v>4099991.0</v>
       </c>
       <c r="D6" t="n">
-        <v>242.0</v>
+        <v>286.0</v>
       </c>
       <c r="E6" t="n">
-        <v>432.0</v>
+        <v>509.0</v>
       </c>
       <c r="F6" t="n">
-        <v>28.442088196058688</v>
+        <v>35.409172876664655</v>
       </c>
       <c r="G6" t="s">
         <v>28</v>
       </c>
       <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" t="s">
         <v>37</v>
       </c>
-      <c r="I6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" t="s">
-        <v>36</v>
-      </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
@@ -472,37 +463,37 @@
         <v>17</v>
       </c>
       <c r="B7" t="n">
-        <v>7465131.0</v>
+        <v>7430940.0</v>
       </c>
       <c r="C7" t="n">
-        <v>4602882.0</v>
+        <v>5695181.0</v>
       </c>
       <c r="D7" t="n">
-        <v>309.0</v>
+        <v>330.0</v>
       </c>
       <c r="E7" t="n">
-        <v>254.0</v>
+        <v>271.0</v>
       </c>
       <c r="F7" t="n">
-        <v>20.399579827605695</v>
+        <v>21.80541653984602</v>
       </c>
       <c r="G7" t="s">
         <v>29</v>
       </c>
       <c r="H7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" t="s">
         <v>35</v>
       </c>
-      <c r="I7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" t="s">
-        <v>38</v>
-      </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -510,34 +501,34 @@
         <v>18</v>
       </c>
       <c r="B8" t="n">
-        <v>5435775.0</v>
+        <v>4278420.0</v>
       </c>
       <c r="C8" t="n">
-        <v>1594242.0</v>
+        <v>2446759.0</v>
       </c>
       <c r="D8" t="n">
-        <v>225.0</v>
+        <v>190.0</v>
       </c>
       <c r="E8" t="n">
-        <v>522.0</v>
+        <v>429.0</v>
       </c>
       <c r="F8" t="n">
-        <v>33.523268393901034</v>
+        <v>30.96464958318637</v>
       </c>
       <c r="G8" t="s">
         <v>30</v>
       </c>
       <c r="H8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" t="s">
         <v>35</v>
       </c>
-      <c r="I8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" t="s">
-        <v>36</v>
-      </c>
       <c r="K8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L8" t="s">
         <v>40</v>
@@ -548,37 +539,37 @@
         <v>19</v>
       </c>
       <c r="B9" t="n">
-        <v>1.1572161E7</v>
+        <v>8106480.0</v>
       </c>
       <c r="C9" t="n">
-        <v>7764756.0</v>
+        <v>6489275.0</v>
       </c>
       <c r="D9" t="n">
-        <v>479.0</v>
+        <v>360.0</v>
       </c>
       <c r="E9" t="n">
-        <v>273.0</v>
+        <v>205.0</v>
       </c>
       <c r="F9" t="n">
-        <v>25.500700270496775</v>
+        <v>26.08867661685904</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" t="s">
         <v>38</v>
       </c>
-      <c r="I9" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" t="s">
-        <v>37</v>
-      </c>
       <c r="K9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
@@ -586,37 +577,37 @@
         <v>20</v>
       </c>
       <c r="B10" t="n">
-        <v>7102746.0</v>
+        <v>4120794.0</v>
       </c>
       <c r="C10" t="n">
-        <v>2813520.0</v>
+        <v>2585884.0</v>
       </c>
       <c r="D10" t="n">
-        <v>294.0</v>
+        <v>183.0</v>
       </c>
       <c r="E10" t="n">
-        <v>542.0</v>
+        <v>338.0</v>
       </c>
       <c r="F10" t="n">
-        <v>43.293571501244074</v>
+        <v>16.466416038192925</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I10" t="s">
         <v>41</v>
       </c>
       <c r="J10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
@@ -624,37 +615,37 @@
         <v>21</v>
       </c>
       <c r="B11" t="n">
-        <v>7223541.0</v>
+        <v>8466768.0</v>
       </c>
       <c r="C11" t="n">
-        <v>4186860.0</v>
+        <v>6290186.0</v>
       </c>
       <c r="D11" t="n">
-        <v>299.0</v>
+        <v>376.0</v>
       </c>
       <c r="E11" t="n">
-        <v>297.0</v>
+        <v>374.0</v>
       </c>
       <c r="F11" t="n">
-        <v>35.57018548219977</v>
+        <v>34.50465807063488</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11" t="s">
         <v>40</v>
       </c>
       <c r="I11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="J11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="L11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
@@ -662,37 +653,37 @@
         <v>22</v>
       </c>
       <c r="B12" t="n">
-        <v>7.4506356E7</v>
+        <v>7.4286882E7</v>
       </c>
       <c r="C12" t="n">
-        <v>4.0266966E7</v>
+        <v>5.4389182E7</v>
       </c>
       <c r="D12" t="n">
-        <v>3084.0</v>
+        <v>3299.0</v>
       </c>
       <c r="E12" t="n">
-        <v>3623.0</v>
+        <v>3544.0</v>
       </c>
       <c r="F12" t="n">
-        <v>299.64890546481035</v>
+        <v>285.13820725096565</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13">
@@ -700,37 +691,37 @@
         <v>23</v>
       </c>
       <c r="B13" t="n">
-        <v>7450635.6</v>
+        <v>7428688.2</v>
       </c>
       <c r="C13" t="n">
-        <v>4026696.6</v>
+        <v>5438918.2</v>
       </c>
       <c r="D13" t="n">
-        <v>308.4</v>
+        <v>329.9</v>
       </c>
       <c r="E13" t="n">
-        <v>362.3</v>
+        <v>354.4</v>
       </c>
       <c r="F13" t="n">
-        <v>29.964890546481033</v>
+        <v>28.513820725096565</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Course II/R/Diksi/result/таблица_Творог.xlsx
+++ b/Course II/R/Diksi/result/таблица_Творог.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="60">
   <si>
     <t>Магазин</t>
   </si>
@@ -86,100 +86,112 @@
     <t>Среднее</t>
   </si>
   <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>83</t>
+    <t>88</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Вторник</t>
+  </si>
+  <si>
+    <t>Четверг</t>
+  </si>
+  <si>
+    <t>Понедельник</t>
+  </si>
+  <si>
+    <t>Пятница</t>
+  </si>
+  <si>
+    <t>Среда</t>
+  </si>
+  <si>
+    <t>Суббота</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>Воскресенье</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>93</t>
   </si>
   <si>
     <t>48</t>
   </si>
   <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Воскресенье</t>
-  </si>
-  <si>
-    <t>Среда</t>
-  </si>
-  <si>
-    <t>Суббота</t>
-  </si>
-  <si>
-    <t>Пятница</t>
-  </si>
-  <si>
-    <t>Четверг</t>
-  </si>
-  <si>
-    <t>Понедельник</t>
-  </si>
-  <si>
-    <t>Вторник</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>79</t>
+    <t>12</t>
+  </si>
+  <si>
+    <t>50</t>
   </si>
   <si>
     <t>125</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>103</t>
   </si>
 </sst>
 </file>
@@ -273,37 +285,37 @@
         <v>12</v>
       </c>
       <c r="B2" t="n">
-        <v>8421732.0</v>
+        <v>5079888.0</v>
       </c>
       <c r="C2" t="n">
-        <v>6253711.0</v>
+        <v>1887206.0</v>
       </c>
       <c r="D2" t="n">
-        <v>374.0</v>
+        <v>396.0</v>
       </c>
       <c r="E2" t="n">
-        <v>373.0</v>
+        <v>397.0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.57864247475628</v>
+        <v>25.145292089886613</v>
       </c>
       <c r="G2" t="s">
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
         <v>41</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -311,37 +323,37 @@
         <v>13</v>
       </c>
       <c r="B3" t="n">
-        <v>1.441152E7</v>
+        <v>6465312.0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.1995194E7</v>
+        <v>3777254.0</v>
       </c>
       <c r="D3" t="n">
-        <v>640.0</v>
+        <v>504.0</v>
       </c>
       <c r="E3" t="n">
-        <v>214.0</v>
+        <v>169.0</v>
       </c>
       <c r="F3" t="n">
-        <v>46.76486267436675</v>
+        <v>21.322914122292634</v>
       </c>
       <c r="G3" t="s">
         <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I3" t="s">
         <v>42</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L3" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -349,19 +361,19 @@
         <v>14</v>
       </c>
       <c r="B4" t="n">
-        <v>3107484.0</v>
+        <v>1693296.0</v>
       </c>
       <c r="C4" t="n">
-        <v>1041059.0</v>
+        <v>-993298.0</v>
       </c>
       <c r="D4" t="n">
-        <v>138.0</v>
+        <v>132.0</v>
       </c>
       <c r="E4" t="n">
-        <v>553.0</v>
+        <v>529.0</v>
       </c>
       <c r="F4" t="n">
-        <v>17.604112073738964</v>
+        <v>14.747073963203361</v>
       </c>
       <c r="G4" t="s">
         <v>26</v>
@@ -373,13 +385,13 @@
         <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="L4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
@@ -387,19 +399,19 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>9502596.0</v>
+        <v>577260.0</v>
       </c>
       <c r="C5" t="n">
-        <v>7491942.0</v>
+        <v>-1261570.0</v>
       </c>
       <c r="D5" t="n">
-        <v>422.0</v>
+        <v>45.0</v>
       </c>
       <c r="E5" t="n">
-        <v>278.0</v>
+        <v>406.0</v>
       </c>
       <c r="F5" t="n">
-        <v>31.95160030271977</v>
+        <v>10.501700542565203</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
@@ -408,16 +420,16 @@
         <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="K5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
@@ -425,37 +437,37 @@
         <v>16</v>
       </c>
       <c r="B6" t="n">
-        <v>6440148.0</v>
+        <v>8209920.0</v>
       </c>
       <c r="C6" t="n">
-        <v>4099991.0</v>
+        <v>5252970.0</v>
       </c>
       <c r="D6" t="n">
-        <v>286.0</v>
+        <v>640.0</v>
       </c>
       <c r="E6" t="n">
-        <v>509.0</v>
+        <v>103.0</v>
       </c>
       <c r="F6" t="n">
-        <v>35.409172876664655</v>
+        <v>40.261052904170064</v>
       </c>
       <c r="G6" t="s">
         <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="L6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
@@ -463,37 +475,37 @@
         <v>17</v>
       </c>
       <c r="B7" t="n">
-        <v>7430940.0</v>
+        <v>5092716.0</v>
       </c>
       <c r="C7" t="n">
-        <v>5695181.0</v>
+        <v>2640452.0</v>
       </c>
       <c r="D7" t="n">
-        <v>330.0</v>
+        <v>397.0</v>
       </c>
       <c r="E7" t="n">
-        <v>271.0</v>
+        <v>215.0</v>
       </c>
       <c r="F7" t="n">
-        <v>21.80541653984602</v>
+        <v>22.193950269643945</v>
       </c>
       <c r="G7" t="s">
         <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J7" t="s">
         <v>35</v>
       </c>
       <c r="K7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
@@ -501,37 +513,37 @@
         <v>18</v>
       </c>
       <c r="B8" t="n">
-        <v>4278420.0</v>
+        <v>8235576.0</v>
       </c>
       <c r="C8" t="n">
-        <v>2446759.0</v>
+        <v>5491562.0</v>
       </c>
       <c r="D8" t="n">
-        <v>190.0</v>
+        <v>642.0</v>
       </c>
       <c r="E8" t="n">
-        <v>429.0</v>
+        <v>49.0</v>
       </c>
       <c r="F8" t="n">
-        <v>30.96464958318637</v>
+        <v>36.46328877887222</v>
       </c>
       <c r="G8" t="s">
         <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
@@ -539,37 +551,37 @@
         <v>19</v>
       </c>
       <c r="B9" t="n">
-        <v>8106480.0</v>
+        <v>4669392.0</v>
       </c>
       <c r="C9" t="n">
-        <v>6489275.0</v>
+        <v>2388774.0</v>
       </c>
       <c r="D9" t="n">
-        <v>360.0</v>
+        <v>364.0</v>
       </c>
       <c r="E9" t="n">
         <v>205.0</v>
       </c>
       <c r="F9" t="n">
-        <v>26.08867661685904</v>
+        <v>35.94440151122286</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" t="s">
         <v>36</v>
-      </c>
-      <c r="I9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" t="s">
-        <v>54</v>
-      </c>
-      <c r="L9" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="10">
@@ -577,37 +589,37 @@
         <v>20</v>
       </c>
       <c r="B10" t="n">
-        <v>4120794.0</v>
+        <v>4592424.0</v>
       </c>
       <c r="C10" t="n">
-        <v>2585884.0</v>
+        <v>1382608.0</v>
       </c>
       <c r="D10" t="n">
-        <v>183.0</v>
+        <v>358.0</v>
       </c>
       <c r="E10" t="n">
-        <v>338.0</v>
+        <v>438.0</v>
       </c>
       <c r="F10" t="n">
-        <v>16.466416038192925</v>
+        <v>46.034148815231255</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I10" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="J10" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="K10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="L10" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
@@ -615,37 +627,37 @@
         <v>21</v>
       </c>
       <c r="B11" t="n">
-        <v>8466768.0</v>
+        <v>9338784.0</v>
       </c>
       <c r="C11" t="n">
-        <v>6290186.0</v>
+        <v>6119068.0</v>
       </c>
       <c r="D11" t="n">
-        <v>376.0</v>
+        <v>728.0</v>
       </c>
       <c r="E11" t="n">
-        <v>374.0</v>
+        <v>82.0</v>
       </c>
       <c r="F11" t="n">
-        <v>34.50465807063488</v>
+        <v>29.091808698211484</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H11" t="s">
         <v>40</v>
       </c>
       <c r="I11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="L11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12">
@@ -653,37 +665,37 @@
         <v>22</v>
       </c>
       <c r="B12" t="n">
-        <v>7.4286882E7</v>
+        <v>5.3954568E7</v>
       </c>
       <c r="C12" t="n">
-        <v>5.4389182E7</v>
+        <v>2.6685026E7</v>
       </c>
       <c r="D12" t="n">
-        <v>3299.0</v>
+        <v>4206.0</v>
       </c>
       <c r="E12" t="n">
-        <v>3544.0</v>
+        <v>2593.0</v>
       </c>
       <c r="F12" t="n">
-        <v>285.13820725096565</v>
+        <v>281.70563169529964</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
@@ -691,37 +703,37 @@
         <v>23</v>
       </c>
       <c r="B13" t="n">
-        <v>7428688.2</v>
+        <v>5395456.8</v>
       </c>
       <c r="C13" t="n">
-        <v>5438918.2</v>
+        <v>2668502.6</v>
       </c>
       <c r="D13" t="n">
-        <v>329.9</v>
+        <v>420.6</v>
       </c>
       <c r="E13" t="n">
-        <v>354.4</v>
+        <v>259.3</v>
       </c>
       <c r="F13" t="n">
-        <v>28.513820725096565</v>
+        <v>28.170563169529963</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
